--- a/Timesheet and MOM/Timesheet_reives 24092015.xlsx
+++ b/Timesheet and MOM/Timesheet_reives 24092015.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="5"/>
   </bookViews>
@@ -31,12 +26,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week#3'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#4'!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="134">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -470,6 +465,15 @@
   <si>
     <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
 - ตรวจสอบคำแนะนำของอาจารย์เพื่อมาปรับแก้ไขเนื้อหาของทีม                                                            - จัดทำเนื้อหาหัวข้อที่ไม่ครบถ้วน คือ มาตรฐานที่เกี่ยวข้อง นิยามคำศัพท์ของระบบ รายการข้อมูลที่ส่งมอบให้ลูกค้า                                                             - ทวนสอบ ตรวจทานเนื้อหา และแก้ไขเนื้อหาหลังจากรวบรวมเนื้อหาที่ได้ปรับแก้ไขแล้ว</t>
+  </si>
+  <si>
+    <t>- อ่านและสรุปเนื้อหาทั้งหมด เพื่อทำสไลด์ PowerPoint                 - ทวนสอบเนื้อหา Proposal</t>
+  </si>
+  <si>
+    <t>เวลาในการทำงานไม่ตรงกัน อาจทำให้ประชุมหรือทำงานรวมกันยาก</t>
+  </si>
+  <si>
+    <t>อ่านและศึกษาเพิ่มเติมจากเอกสารคำแนะในการจัดทำเอกสาร</t>
   </si>
 </sst>
 </file>
@@ -689,17 +693,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,29 +705,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -744,6 +726,28 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,7 +832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -863,7 +867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1185,176 +1189,176 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="28">
-        <v>2</v>
-      </c>
-      <c r="E10" s="28">
-        <v>2</v>
-      </c>
-      <c r="F10" s="28">
+      <c r="D10" s="23">
+        <v>2</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23">
         <f t="shared" ref="F10:F14" si="0">SUM(D10:E10)</f>
         <v>4</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="25" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
-        <v>2</v>
-      </c>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="28">
-        <v>2</v>
-      </c>
-      <c r="E11" s="28">
-        <v>2</v>
-      </c>
-      <c r="F11" s="28">
+      <c r="D11" s="23">
+        <v>2</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2</v>
+      </c>
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="28">
-        <v>2</v>
-      </c>
-      <c r="E12" s="28">
-        <v>2</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="D12" s="23">
+        <v>2</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="28">
-        <v>2</v>
-      </c>
-      <c r="E13" s="28">
-        <v>2</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="D13" s="23">
+        <v>2</v>
+      </c>
+      <c r="E13" s="23">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="28">
-        <v>2</v>
-      </c>
-      <c r="E14" s="28">
-        <v>2</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="D14" s="23">
+        <v>2</v>
+      </c>
+      <c r="E14" s="23">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="32">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="26">
         <f>SUM(F10:F14)</f>
         <v>20</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
@@ -1519,219 +1523,219 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="23">
         <v>0.5</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="23">
         <v>0.5</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="23">
         <f t="shared" ref="F10:F15" si="0">SUM(D10:E10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="65.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
-        <v>2</v>
-      </c>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="28">
-        <v>2</v>
-      </c>
-      <c r="F11" s="28">
+      <c r="E11" s="23">
+        <v>2</v>
+      </c>
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="23">
         <v>0</v>
       </c>
-      <c r="E12" s="28">
-        <v>2</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="23">
         <v>1</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="23">
         <v>0</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="23">
         <v>1</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="23">
         <v>6</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="23">
         <v>0</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="23">
         <v>1</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="32">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="26">
         <f>SUM(F10:F15)</f>
         <v>9</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
@@ -1851,271 +1855,271 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="28">
+      <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="28">
-        <v>2</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="D10" s="23">
+        <v>2</v>
+      </c>
+      <c r="E10" s="23">
         <v>1</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="23">
         <f t="shared" ref="F10:F14" si="0">SUM(D10:E10)</f>
         <v>3</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="A11" s="28">
-        <v>2</v>
-      </c>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
         <v>2.5</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
-      <c r="A12" s="28">
+      <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="23">
         <v>3</v>
       </c>
-      <c r="E12" s="28">
-        <v>2</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="A13" s="28">
+      <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="28">
-        <v>2</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13" s="23">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
-      <c r="A14" s="28">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="28">
-        <v>2</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="23">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="65.25" x14ac:dyDescent="0.5">
-      <c r="A15" s="28">
+      <c r="A15" s="23">
         <v>6</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="23">
         <v>3</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="23">
         <v>1</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="23">
         <v>4</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="29" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="32">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="26">
         <f>SUM(F10:F15)</f>
         <v>20.5</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2262,192 +2266,192 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="23">
         <v>3</v>
       </c>
-      <c r="E10" s="28">
-        <v>2</v>
-      </c>
-      <c r="F10" s="28">
+      <c r="E10" s="23">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23">
         <f>SUM(D10:E10)</f>
         <v>5</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="25" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
-        <v>2</v>
-      </c>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="23">
         <v>4</v>
       </c>
-      <c r="E11" s="28">
-        <v>2</v>
-      </c>
-      <c r="F11" s="28">
+      <c r="E11" s="23">
+        <v>2</v>
+      </c>
+      <c r="F11" s="23">
         <f>SUM(D11,E11)</f>
         <v>6</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="108.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="23">
         <v>3</v>
       </c>
-      <c r="E12" s="28">
-        <v>2</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23">
         <f>SUM(D12,E12)</f>
         <v>5</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="25" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="23">
         <v>3</v>
       </c>
-      <c r="E13" s="28">
-        <v>2</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13" s="23">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23">
         <f>SUM(D13,E13)</f>
         <v>5</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="23">
         <v>4</v>
       </c>
-      <c r="E14" s="28">
-        <v>2</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="23">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23">
         <f>SUM(D14,E14)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="25" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="28">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="23">
         <f>SUM(F10:F14)</f>
         <v>27</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
@@ -2471,7 +2475,7 @@
     <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
@@ -2605,192 +2609,192 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="23">
         <v>2.5</v>
       </c>
-      <c r="E10" s="28">
-        <v>2</v>
-      </c>
-      <c r="F10" s="28">
+      <c r="E10" s="23">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23">
         <f t="shared" ref="F10:F14" si="0">SUM(D10:E10)</f>
         <v>4.5</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="25" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
-        <v>2</v>
-      </c>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="23">
         <v>4</v>
       </c>
-      <c r="E11" s="28">
-        <v>2</v>
-      </c>
-      <c r="F11" s="28">
+      <c r="E11" s="23">
+        <v>2</v>
+      </c>
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="32" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="23">
         <v>1.5</v>
       </c>
-      <c r="E12" s="28">
-        <v>2</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="28">
-        <v>2</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13" s="23">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="261" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="23">
         <v>3</v>
       </c>
-      <c r="E14" s="28">
-        <v>2</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="23">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="28">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="23">
         <f>SUM(F10:F14)</f>
         <v>22</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
@@ -2847,15 +2851,15 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="18"/>
     <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
@@ -2910,166 +2914,174 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="28">
+      <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
         <v>7</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="23">
         <f t="shared" ref="F10:F14" si="0">SUM(D10:E10)</f>
         <v>7</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="28">
-        <v>2</v>
-      </c>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
         <v>7</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" ht="239.25" x14ac:dyDescent="0.5">
-      <c r="A12" s="28">
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="217.5" x14ac:dyDescent="0.5">
+      <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="23">
         <v>3</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="23">
         <v>7</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="25" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="28">
+      <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28">
-        <v>2</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="43">
+      <c r="A14" s="33">
         <v>5</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28">
-        <v>2</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="C14" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="23">
+        <v>4</v>
+      </c>
+      <c r="E14" s="23">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="28">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="23">
         <f>SUM(F10:F14)</f>
-        <v>28</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+        <v>32</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Timesheet and MOM/Timesheet_reives 24092015.xlsx
+++ b/Timesheet and MOM/Timesheet_reives 24092015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="5"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="136">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -384,10 +384,6 @@
 - ทวนสอบโครงร่างหัวข้อ Proposal จากเอกสารคำแนะนำในการจัดทำเอกสาร </t>
   </si>
   <si>
-    <t xml:space="preserve">- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
--  </t>
-  </si>
-  <si>
     <t>ข้อมูลเนื้อหาที่จะทำงานมีข้อมูลไม่ครบด้วยทำให้การประชุมยังไม่มีประสิธิภาพมากพอ ดังนั้นก่อนการปะชุมในวันอาทิตย์ของทุกสัปกดาห์ ทุกคนในทีมจะต้องรวบรวมคำแนะนำจากการส่งงานรอบที่แล้ว และเรื่องที่จะทำงานส่งในรอบต่อไป เพื่อในการประชุมครั้งต่อไปทีมงานจะได้มีข้อมูลมาปรึกษาและช่วยกันหาคำตอบได้</t>
   </si>
   <si>
@@ -474,6 +470,16 @@
   </si>
   <si>
     <t>อ่านและศึกษาเพิ่มเติมจากเอกสารคำแนะในการจัดทำเอกสาร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+-  ทวนสอบ Proposal </t>
+  </si>
+  <si>
+    <t>ทวนเอกสารและข้อความที่ขาดเหลือ โดยมีการแบ่งงานในการประชุมกัน</t>
+  </si>
+  <si>
+    <t>เวลาในการทำงานของแต่ล่ะคนไม่ตรงกัน จึงทำให้การประชุมในบางครั้งอาจจะไม่ครบ</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>72</v>
@@ -2156,7 +2162,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2232,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2311,7 +2317,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="23">
         <v>3</v>
@@ -2324,10 +2330,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>114</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
@@ -2338,7 +2344,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="23">
         <v>4</v>
@@ -2351,10 +2357,10 @@
         <v>6</v>
       </c>
       <c r="G11" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
@@ -2365,7 +2371,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="23">
         <v>3</v>
@@ -2378,10 +2384,10 @@
         <v>5</v>
       </c>
       <c r="G12" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2392,7 +2398,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="23">
         <v>3</v>
@@ -2405,10 +2411,10 @@
         <v>5</v>
       </c>
       <c r="G13" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>123</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2419,7 +2425,7 @@
         <v>84</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="23">
         <v>4</v>
@@ -2432,10 +2438,10 @@
         <v>6</v>
       </c>
       <c r="G14" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>126</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
@@ -2475,7 +2481,7 @@
     <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
@@ -2501,7 +2507,7 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2851,8 +2857,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -2902,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
@@ -3001,7 +3007,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="23">
         <v>3</v>
@@ -3014,10 +3020,10 @@
         <v>10</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -3028,18 +3034,24 @@
         <v>57</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="23"/>
+        <v>133</v>
+      </c>
+      <c r="D13" s="23">
+        <v>3</v>
+      </c>
       <c r="E13" s="23">
         <v>2</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="33">
@@ -3049,7 +3061,7 @@
         <v>84</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="23">
         <v>4</v>
@@ -3062,10 +3074,10 @@
         <v>6</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
@@ -3078,7 +3090,7 @@
       <c r="E15" s="38"/>
       <c r="F15" s="23">
         <f>SUM(F10:F14)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>

--- a/Timesheet and MOM/Timesheet_reives 24092015.xlsx
+++ b/Timesheet and MOM/Timesheet_reives 24092015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="810" windowWidth="19580" windowHeight="7080" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="139">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -376,10 +376,6 @@
     <t>เมื่อมีการแก้ไขเอกสารต้องจัดรูปเล่มใหม่ ซึ่งใช้เวลาในการแก้ไขนาน</t>
   </si>
   <si>
-    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
--</t>
-  </si>
-  <si>
     <t xml:space="preserve">- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
 - ทวนสอบโครงร่างหัวข้อ Proposal จากเอกสารคำแนะนำในการจัดทำเอกสาร </t>
   </si>
@@ -480,6 +476,19 @@
   </si>
   <si>
     <t>เวลาในการทำงานของแต่ล่ะคนไม่ตรงกัน จึงทำให้การประชุมในบางครั้งอาจจะไม่ครบ</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+-ทวนสอบ Proposal และปรับแก้เนื้อหาความถูกต้องโดยรวม รวมทั้งทวนสอบและปรับแก้ Presentation</t>
+  </si>
+  <si>
+    <t>ปฤษฎี(ชนะพันธุ์) ท่าดีสม</t>
+  </si>
+  <si>
+    <t>ประชุมแจกแจงในขั้นต้นก่อนเริ่มงาน, ติดตามงาน, ประชุมทวนสอบเพื่อรวมเนื้องาน, ทวนสอบงานหลังจากรายละเอียดเสร็จ และ ร่วมกันปรับปรุงเนื้อหา</t>
+  </si>
+  <si>
+    <t>เวลาในการประชุมไม่ตรงกัน, สมาชิกไม่เข้าใจในเนื้อหาที่กำลังทำอย่างถ่องแท้, การเตรียมหัวข้อในการประชุมยังไม่มีประสิทธิภาพ</t>
   </si>
 </sst>
 </file>
@@ -796,7 +805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1088,21 +1097,21 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1114,7 +1123,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1137,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +1151,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1165,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1179,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1193,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1194,7 +1203,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="40"/>
       <c r="C9" s="35"/>
@@ -1232,12 +1241,12 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>75</v>
@@ -1259,7 +1268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1282,7 +1291,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -1305,7 +1314,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -1328,7 +1337,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1351,7 +1360,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="36" t="s">
         <v>73</v>
       </c>
@@ -1366,7 +1375,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1376,7 +1385,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1401,7 +1410,7 @@
   <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1">
           <x14:formula1>
             <xm:f>TeamMember!$E$2:$E$6</xm:f>
@@ -1422,21 +1431,21 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1448,7 +1457,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1471,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1476,7 +1485,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1490,7 +1499,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +1513,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1518,7 +1527,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1528,7 +1537,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -1552,7 +1561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -1566,12 +1575,12 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>41</v>
@@ -1593,12 +1602,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="65.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>2</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>60</v>
@@ -1620,7 +1629,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -1674,7 +1683,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>6</v>
       </c>
@@ -1722,13 +1731,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A16" s="36" t="s">
         <v>73</v>
       </c>
@@ -1743,7 +1752,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1753,7 +1762,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1778,7 +1787,7 @@
   <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1">
           <x14:formula1>
             <xm:f>TeamMember!$E$2:$E$6</xm:f>
@@ -1799,28 +1808,28 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="17.5703125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="17.54296875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1852,7 +1861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1860,7 +1869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -1884,7 +1893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -1898,12 +1907,12 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>42</v>
@@ -1942,12 +1951,12 @@
       <c r="Z10" s="28"/>
       <c r="AA10" s="28"/>
     </row>
-    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A11" s="23">
         <v>2</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>65</v>
@@ -1986,7 +1995,7 @@
       <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
     </row>
-    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:27" ht="42" x14ac:dyDescent="0.7">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -2032,7 +2041,7 @@
       <c r="Z12" s="28"/>
       <c r="AA12" s="28"/>
     </row>
-    <row r="13" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.7">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:27" ht="105" x14ac:dyDescent="0.7">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="65.25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="63" x14ac:dyDescent="0.7">
       <c r="A15" s="23">
         <v>6</v>
       </c>
@@ -2112,7 +2121,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.7">
       <c r="A16" s="36" t="s">
         <v>73</v>
       </c>
@@ -2162,24 +2171,24 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="15"/>
-    <col min="5" max="5" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="15"/>
+    <col min="1" max="1" width="16.81640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="15"/>
+    <col min="5" max="5" width="19.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2191,7 +2200,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2205,7 +2214,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2219,7 +2228,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2233,12 +2242,12 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2247,7 +2256,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2261,7 +2270,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2271,7 +2280,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -2295,7 +2304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -2309,7 +2318,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>1</v>
       </c>
@@ -2317,7 +2326,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="23">
         <v>3</v>
@@ -2330,13 +2339,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" ht="147" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -2344,7 +2353,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="23">
         <v>4</v>
@@ -2357,13 +2366,13 @@
         <v>6</v>
       </c>
       <c r="G11" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" ht="84" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -2371,7 +2380,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="23">
         <v>3</v>
@@ -2384,13 +2393,13 @@
         <v>5</v>
       </c>
       <c r="G12" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -2398,7 +2407,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="23">
         <v>3</v>
@@ -2411,13 +2420,13 @@
         <v>5</v>
       </c>
       <c r="G13" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -2425,7 +2434,7 @@
         <v>84</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="23">
         <v>4</v>
@@ -2438,13 +2447,13 @@
         <v>6</v>
       </c>
       <c r="G14" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="41" t="s">
         <v>73</v>
       </c>
@@ -2459,7 +2468,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2507,22 +2516,22 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2534,7 +2543,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2548,7 +2557,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +2571,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2576,7 +2585,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2590,7 +2599,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2604,7 +2613,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2614,7 +2623,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -2638,7 +2647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -2652,12 +2661,12 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>94</v>
@@ -2679,7 +2688,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -2706,7 +2715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -2733,7 +2742,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -2760,7 +2769,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="261" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="41" t="s">
         <v>73</v>
       </c>
@@ -2802,7 +2811,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2812,7 +2821,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2857,29 +2866,29 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="18"/>
-    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="18"/>
+    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="18"/>
+    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2903,15 +2912,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2919,7 +2928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -2943,7 +2952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -2957,28 +2966,34 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="23"/>
+        <v>135</v>
+      </c>
+      <c r="D10" s="23">
+        <v>3.5</v>
+      </c>
       <c r="E10" s="23">
         <v>7</v>
       </c>
       <c r="F10" s="23">
         <f t="shared" ref="F10:F14" si="0">SUM(D10:E10)</f>
-        <v>7</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>10.5</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -2986,7 +3001,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23">
@@ -2999,7 +3014,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:8" ht="217.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.7">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -3007,7 +3022,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="23">
         <v>3</v>
@@ -3020,13 +3035,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -3034,7 +3049,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="23">
         <v>3</v>
@@ -3047,13 +3062,13 @@
         <v>5</v>
       </c>
       <c r="G13" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="33">
         <v>5</v>
       </c>
@@ -3061,7 +3076,7 @@
         <v>84</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="23">
         <v>4</v>
@@ -3074,13 +3089,13 @@
         <v>6</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
       <c r="A15" s="41" t="s">
         <v>73</v>
       </c>
@@ -3090,7 +3105,7 @@
       <c r="E15" s="38"/>
       <c r="F15" s="23">
         <f>SUM(F10:F14)</f>
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
@@ -3131,24 +3146,24 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3163,18 +3178,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3223,7 +3240,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3237,7 +3254,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>37</v>
@@ -3252,7 +3269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3281,7 +3298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3310,7 +3327,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3329,7 +3346,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>

--- a/Timesheet and MOM/Timesheet_reives 24092015.xlsx
+++ b/Timesheet and MOM/Timesheet_reives 24092015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="810" windowWidth="19580" windowHeight="7080" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Week#1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -376,10 +376,6 @@
     <t>เมื่อมีการแก้ไขเอกสารต้องจัดรูปเล่มใหม่ ซึ่งใช้เวลาในการแก้ไขนาน</t>
   </si>
   <si>
-    <t xml:space="preserve">- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
-- ทวนสอบโครงร่างหัวข้อ Proposal จากเอกสารคำแนะนำในการจัดทำเอกสาร </t>
-  </si>
-  <si>
     <t>ข้อมูลเนื้อหาที่จะทำงานมีข้อมูลไม่ครบด้วยทำให้การประชุมยังไม่มีประสิธิภาพมากพอ ดังนั้นก่อนการปะชุมในวันอาทิตย์ของทุกสัปกดาห์ ทุกคนในทีมจะต้องรวบรวมคำแนะนำจากการส่งงานรอบที่แล้ว และเรื่องที่จะทำงานส่งในรอบต่อไป เพื่อในการประชุมครั้งต่อไปทีมงานจะได้มีข้อมูลมาปรึกษาและช่วยกันหาคำตอบได้</t>
   </si>
   <si>
@@ -455,13 +451,6 @@
     <t>Proposal Document and Present Transacion Slide</t>
   </si>
   <si>
-    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
-- ตรวจสอบคำแนะนำของอาจารย์เพื่อมาปรับแก้ไขเนื้อหาของทีม                                                            - จัดทำเนื้อหาหัวข้อที่ไม่ครบถ้วน คือ มาตรฐานที่เกี่ยวข้อง นิยามคำศัพท์ของระบบ รายการข้อมูลที่ส่งมอบให้ลูกค้า                                                             - ทวนสอบ ตรวจทานเนื้อหา และแก้ไขเนื้อหาหลังจากรวบรวมเนื้อหาที่ได้ปรับแก้ไขแล้ว</t>
-  </si>
-  <si>
-    <t>- อ่านและสรุปเนื้อหาทั้งหมด เพื่อทำสไลด์ PowerPoint                 - ทวนสอบเนื้อหา Proposal</t>
-  </si>
-  <si>
     <t>เวลาในการทำงานไม่ตรงกัน อาจทำให้ประชุมหรือทำงานรวมกันยาก</t>
   </si>
   <si>
@@ -489,6 +478,25 @@
   </si>
   <si>
     <t>เวลาในการประชุมไม่ตรงกัน, สมาชิกไม่เข้าใจในเนื้อหาที่กำลังทำอย่างถ่องแท้, การเตรียมหัวข้อในการประชุมยังไม่มีประสิทธิภาพ</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- ทวนสอบโครงร่างหัวข้อ Proposal จากเอกสารคำแนะนำในการจัดทำเอกสาร 
+- รวบรวมเอกสารโครงร่างโครงงานรายวิชา</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - อ่านและสรุปเนื้อหาทั้งหมด เพื่อทำสไลด์ PowerPoint           - ทวนสอบเนื้อหา Proposal</t>
+  </si>
+  <si>
+    <t>- ประชุมปรึกษาปัญหาที่เกิดจากการทำงานรอบที่แล้ว มอบหมายงาน และอธิบายเนื้องานที่ได้รับมอบหมายกันอาทิตย์นี้
+- ตรวจสอบคำแนะนำของอาจารย์เพื่อมาปรับแก้ไขเนื้อหาของทีม  - จัดทำเนื้อหาหัวข้อที่ไม่ครบถ้วน คือ มาตรฐานที่เกี่ยวข้อง นิยามคำศัพท์ของระบบ รายการข้อมูลที่ส่งมอบให้ลูกค้า                     - ทวนสอบ ตรวจทานเนื้อหา และแก้ไขเนื้อหาหลังจากรวบรวมเนื้อหาที่ได้ปรับแก้ไขแล้ว</t>
+  </si>
+  <si>
+    <t>- สร้างเอกสารโครงร่างโครงงานรายวิชา โดยรวบรวมเนื้อหาจากสมาชิกภายในกลุ่ม
+- ทวนสอบความถูกต้องของเอกสาร</t>
+  </si>
+  <si>
+    <t>ขาดความเข้าใจในการเขียนเอกสาร Proprosal แก้ปัญหาโดยการศึกษาแนวทางการเขียน Proposal จากหัวข้อที่อาจารย์แนะนำ และประชุมปรึกษากับสมาชิกภายในกลุ่ม</t>
   </si>
 </sst>
 </file>
@@ -805,7 +813,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1100,18 +1108,18 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1123,7 +1131,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1137,7 +1145,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1159,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1173,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1187,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1201,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1203,7 +1211,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="40"/>
       <c r="C9" s="35"/>
@@ -1241,12 +1249,12 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>75</v>
@@ -1268,7 +1276,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -1291,7 +1299,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -1314,7 +1322,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -1337,7 +1345,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1360,7 +1368,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="36" t="s">
         <v>73</v>
       </c>
@@ -1375,7 +1383,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1385,7 +1393,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1434,18 +1442,18 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -1457,7 +1465,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1471,7 +1479,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1493,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1499,7 +1507,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1521,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1527,7 +1535,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1537,7 +1545,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -1561,7 +1569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -1575,12 +1583,12 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>41</v>
@@ -1602,12 +1610,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="65.25" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>60</v>
@@ -1629,7 +1637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -1656,7 +1664,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -1683,7 +1691,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -1710,7 +1718,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>6</v>
       </c>
@@ -1731,13 +1739,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A16" s="36" t="s">
         <v>73</v>
       </c>
@@ -1752,7 +1760,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1762,7 +1770,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1811,25 +1819,25 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18"/>
-    <col min="5" max="5" width="17.54296875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="17.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1837,7 +1845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1845,7 +1853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -1853,7 +1861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1861,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1869,7 +1877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -1893,7 +1901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -1907,12 +1915,12 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>42</v>
@@ -1951,12 +1959,12 @@
       <c r="Z10" s="28"/>
       <c r="AA10" s="28"/>
     </row>
-    <row r="11" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A11" s="23">
         <v>2</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>65</v>
@@ -1995,7 +2003,7 @@
       <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
     </row>
-    <row r="12" spans="1:27" ht="42" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.5">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -2041,7 +2049,7 @@
       <c r="Z12" s="28"/>
       <c r="AA12" s="28"/>
     </row>
-    <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -2068,7 +2076,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="105" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:27" ht="108.75" x14ac:dyDescent="0.5">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -2095,7 +2103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="63" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:27" ht="65.25" x14ac:dyDescent="0.5">
       <c r="A15" s="23">
         <v>6</v>
       </c>
@@ -2121,7 +2129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:27" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A16" s="36" t="s">
         <v>73</v>
       </c>
@@ -2175,20 +2183,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="15"/>
-    <col min="5" max="5" width="19.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="15"/>
+    <col min="1" max="1" width="16.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="15"/>
+    <col min="5" max="5" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2200,7 +2208,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2214,7 +2222,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2228,7 +2236,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2242,12 +2250,12 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2256,7 +2264,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2270,7 +2278,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2280,7 +2288,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -2304,7 +2312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -2318,7 +2326,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>1</v>
       </c>
@@ -2326,7 +2334,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="23">
         <v>3</v>
@@ -2339,13 +2347,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="147" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -2353,7 +2361,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="23">
         <v>4</v>
@@ -2366,13 +2374,13 @@
         <v>6</v>
       </c>
       <c r="G11" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -2380,7 +2388,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="23">
         <v>3</v>
@@ -2393,13 +2401,13 @@
         <v>5</v>
       </c>
       <c r="G12" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -2407,7 +2415,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="23">
         <v>3</v>
@@ -2420,13 +2428,13 @@
         <v>5</v>
       </c>
       <c r="G13" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -2434,7 +2442,7 @@
         <v>84</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="23">
         <v>4</v>
@@ -2447,13 +2455,13 @@
         <v>6</v>
       </c>
       <c r="G14" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    </row>
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="41" t="s">
         <v>73</v>
       </c>
@@ -2468,7 +2476,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2520,18 +2528,18 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2543,7 +2551,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2557,7 +2565,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2571,7 +2579,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2585,7 +2593,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2599,7 +2607,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2613,7 +2621,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2623,7 +2631,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -2647,7 +2655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -2661,12 +2669,12 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>94</v>
@@ -2688,7 +2696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="152.25" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -2715,7 +2723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="168" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="195.75" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -2742,7 +2750,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -2769,7 +2777,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="261" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>5</v>
       </c>
@@ -2796,7 +2804,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="41" t="s">
         <v>73</v>
       </c>
@@ -2811,7 +2819,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -2821,7 +2829,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2866,29 +2874,29 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="47.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="18"/>
-    <col min="5" max="5" width="15.81640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18"/>
+    <col min="5" max="5" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2896,7 +2904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2912,15 +2920,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -2928,7 +2936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="39" t="s">
         <v>14</v>
       </c>
@@ -2952,7 +2960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -2966,15 +2974,15 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="23">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D10" s="23">
         <v>3.5</v>
@@ -2987,13 +2995,13 @@
         <v>10.5</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -3001,28 +3009,34 @@
         <v>52</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="23"/>
+        <v>136</v>
+      </c>
+      <c r="D11" s="23">
+        <v>4</v>
+      </c>
       <c r="E11" s="23">
         <v>7</v>
       </c>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.7">
+        <v>11</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="217.5" x14ac:dyDescent="0.5">
       <c r="A12" s="23">
         <v>3</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>128</v>
+      <c r="C12" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="D12" s="23">
         <v>3</v>
@@ -3035,13 +3049,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="23">
         <v>4</v>
       </c>
@@ -3049,7 +3063,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D13" s="23">
         <v>3</v>
@@ -3062,13 +3076,13 @@
         <v>5</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="33">
         <v>5</v>
       </c>
@@ -3076,7 +3090,7 @@
         <v>84</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D14" s="23">
         <v>4</v>
@@ -3089,13 +3103,13 @@
         <v>6</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A15" s="41" t="s">
         <v>73</v>
       </c>
@@ -3105,7 +3119,7 @@
       <c r="E15" s="38"/>
       <c r="F15" s="23">
         <f>SUM(F10:F14)</f>
-        <v>38.5</v>
+        <v>42.5</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
@@ -3146,24 +3160,24 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3182,16 +3196,16 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="29.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3240,7 +3254,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3254,7 +3268,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>37</v>
@@ -3269,7 +3283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3298,7 +3312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3327,7 +3341,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3346,7 +3360,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
